--- a/2025/divestment-nlp/scrape.xlsx
+++ b/2025/divestment-nlp/scrape.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R49"/>
+  <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,85 +436,60 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0.3</t>
+          <t>Publication</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0.2</t>
+          <t>Date of Event</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0.1</t>
+          <t>Source</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Administration</t>
+          <t>Movement</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Publication</t>
+          <t>Actor</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Date of Event</t>
+          <t>Type of Action</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Source</t>
+          <t>Target of action</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>Admin Response</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Movement</t>
+          <t>Notes</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Actor</t>
+          <t>Include</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Type of Action</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Target of action</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Admin Response</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Notes</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Include</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Text</t>
         </is>
@@ -524,77 +499,60 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Maroon</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>5/20/2024</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>We’re Turning Our Backs to You! – Chicago Maroon</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://chicagomaroon.com/44383/viewpoints/letter/were-turning-our-backs-to-you/</t>
+        </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Alivisatos</t>
+          <t>Palestine</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>SJP</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>5/20/2024</t>
+          <t>Protest, Letter Writing</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>We’re Turning Our Backs to You! – Chicago Maroon</t>
+          <t>General</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>https://chicagomaroon.com/44383/viewpoints/letter/were-turning-our-backs-to-you/</t>
+          <t>Arrest/punish</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Palestine</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>SJP</t>
-        </is>
+          <t>Suspended / mandatory leave of absense</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>1</v>
       </c>
       <c r="M2" t="inlineStr">
-        <is>
-          <t>Protest, Letter Writing</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Arrest/punish</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>Suspended / mandatory leave of absense</t>
-        </is>
-      </c>
-      <c r="Q2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Categories: 
@@ -658,65 +616,48 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Maroon</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>4/30/2024</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>On Expression and Disruption – Chicago Maroon</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://chicagomaroon.com/42441/viewpoints/op-ed/on-expression-and-disruption/</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Palestine</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Letter Writing</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Alivisatos</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Maroon</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>4/30/2024</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>On Expression and Disruption – Chicago Maroon</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>https://chicagomaroon.com/42441/viewpoints/op-ed/on-expression-and-disruption/</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Palestine</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
-        <is>
-          <t>Letter Writing</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="n">
-        <v>1</v>
-      </c>
-      <c r="R3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Categories: 
@@ -779,65 +720,48 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" t="n">
-        <v>2</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Maroon</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>4/19/2024</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>How Little Does Palestinian Life Matter to the University of Chicago?</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://chicagomaroon.com/42119/viewpoints/op-ed/how-little-does-palestinian-life-matter-to-the-university-of-chicago/</t>
+        </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Alivisatos</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Maroon</t>
-        </is>
-      </c>
+          <t>Palestine</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>4/19/2024</t>
+          <t>Letter Writing</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>How Little Does Palestinian Life Matter to the University of Chicago?</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>https://chicagomaroon.com/42119/viewpoints/op-ed/how-little-does-palestinian-life-matter-to-the-university-of-chicago/</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Palestine</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr"/>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
       <c r="M4" t="inlineStr">
-        <is>
-          <t>Letter Writing</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="n">
-        <v>1</v>
-      </c>
-      <c r="R4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Categories: 
@@ -909,65 +833,48 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3</v>
-      </c>
-      <c r="E5" t="n">
-        <v>3</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Maroon</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2/9/2024</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Admin Is Trying to Silence Us for Speaking Up About Palestine. We Won’t Let That Happen. – Chicago Maroon</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://chicagomaroon.com/41424/viewpoints/letter/admin-is-trying-to-silence-us-for-speaking-up-about-palestine-we-wont-let-that-happen/</t>
+        </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Alivisatos</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Maroon</t>
-        </is>
-      </c>
+          <t>Palestine</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2/9/2024</t>
+          <t>Letter Writing, Protest</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Admin Is Trying to Silence Us for Speaking Up About Palestine. We Won’t Let That Happen. – Chicago Maroon</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>https://chicagomaroon.com/41424/viewpoints/letter/admin-is-trying-to-silence-us-for-speaking-up-about-palestine-we-wont-let-that-happen/</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Palestine</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
       <c r="M5" t="inlineStr">
-        <is>
-          <t>Letter Writing, Protest</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Categories: 
@@ -1064,65 +971,48 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4</v>
-      </c>
-      <c r="E6" t="n">
-        <v>4</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Maroon</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>5/30/2022</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>The Maroon Editorial Board Should Endorse BDS</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>https://chicagomaroon.com/32717/viewpoints/column/maroon-editorial-board-endorse-bds/</t>
+        </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Alivisatos</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Maroon</t>
-        </is>
-      </c>
+          <t>Palestine</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>5/30/2022</t>
+          <t>Letter Writing</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>The Maroon Editorial Board Should Endorse BDS</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>https://chicagomaroon.com/32717/viewpoints/column/maroon-editorial-board-endorse-bds/</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>Palestine</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr"/>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
       <c r="M6" t="inlineStr">
-        <is>
-          <t>Letter Writing</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="n">
-        <v>1</v>
-      </c>
-      <c r="R6" t="inlineStr">
         <is>
           <t>The Maroon Editorial Board Should Endorse BDS
 The Maroon Editorial Board should follow The Harvard Crimson’s recent move and voice its support for the BDS movement and Palestinian liberation.
@@ -1140,65 +1030,48 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D7" t="n">
-        <v>5</v>
-      </c>
-      <c r="E7" t="n">
-        <v>5</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Maroon</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>10/17/2020</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>To Achieve Genuine Sustainability, Let’s Get Strategic – Chicago Maroon</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>https://chicagomaroon.com/28049/viewpoints/column/achieve-genuine-sustainability-lets-get-strategic/</t>
+        </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Zimmer</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Maroon</t>
-        </is>
-      </c>
+          <t>Fossil fuels</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>10/17/2020</t>
+          <t>Letter Writing</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>To Achieve Genuine Sustainability, Let’s Get Strategic – Chicago Maroon</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>https://chicagomaroon.com/28049/viewpoints/column/achieve-genuine-sustainability-lets-get-strategic/</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Fossil fuels</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr"/>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
       <c r="M7" t="inlineStr">
-        <is>
-          <t>Letter Writing</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Categories: 
@@ -1247,65 +1120,48 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>6</v>
-      </c>
-      <c r="D8" t="n">
-        <v>6</v>
-      </c>
-      <c r="E8" t="n">
-        <v>6</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Maroon</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>3/6/2017</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>A Retort to the Kalven Report – Chicago Maroon</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>https://chicagomaroon.com/24077/viewpoints/column/retort-kalven-report/</t>
+        </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Zimmer</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Maroon</t>
-        </is>
-      </c>
+          <t>Fossil fuels</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>3/6/2017</t>
+          <t>Letter Writing</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>A Retort to the Kalven Report – Chicago Maroon</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>https://chicagomaroon.com/24077/viewpoints/column/retort-kalven-report/</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>Fossil fuels</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr"/>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
       <c r="M8" t="inlineStr">
-        <is>
-          <t>Letter Writing</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="n">
-        <v>1</v>
-      </c>
-      <c r="R8" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Categories: 
@@ -1352,73 +1208,56 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>7</v>
-      </c>
-      <c r="D9" t="n">
-        <v>7</v>
-      </c>
-      <c r="E9" t="n">
-        <v>7</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Maroon</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2/22/2016</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Open Letter From Faculty Pushes Fossil Fuel Divestment – Chicago Maroon</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>https://chicagomaroon.com/21635/news/students-for-climate-change-releases-petition-to-divest-from-fossil-fuels/</t>
+        </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Zimmer</t>
+          <t>Fossil fuels</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>UCAN</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2/22/2016</t>
+          <t>Letter Writing</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Open Letter From Faculty Pushes Fossil Fuel Divestment – Chicago Maroon</t>
+          <t>General</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>https://chicagomaroon.com/21635/news/students-for-climate-change-releases-petition-to-divest-from-fossil-fuels/</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>Fossil fuels</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>UCAN</t>
-        </is>
+          <t>Ignore/refuse</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
       </c>
       <c r="M9" t="inlineStr">
-        <is>
-          <t>Letter Writing</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>Ignore/refuse</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Categories: 
@@ -1464,69 +1303,52 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>8</v>
-      </c>
-      <c r="D10" t="n">
-        <v>8</v>
-      </c>
-      <c r="E10" t="n">
-        <v>8</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Maroon</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>10/15/2015</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Letter: UCAN demands that Trustees consider divestment – Chicago Maroon</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>https://chicagomaroon.com/20804/viewpoints/letter/letter-ucan-demands-that-trustees-consider-divestment/</t>
+        </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Zimmer</t>
+          <t>Fossil fuels</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>UCAN</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>10/15/2015</t>
+          <t>Letter Writing</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Letter: UCAN demands that Trustees consider divestment – Chicago Maroon</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>https://chicagomaroon.com/20804/viewpoints/letter/letter-ucan-demands-that-trustees-consider-divestment/</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>Fossil fuels</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>UCAN</t>
-        </is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
       </c>
       <c r="M10" t="inlineStr">
-        <is>
-          <t>Letter Writing</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Categories: 
@@ -1572,65 +1394,48 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>9</v>
-      </c>
-      <c r="D11" t="n">
-        <v>9</v>
-      </c>
-      <c r="E11" t="n">
-        <v>9</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Maroon</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>5/31/2013</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>“Ahistorical activism” flawed – Chicago Maroon</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>https://chicagomaroon.com/17451/viewpoints/op-ed/ahistorical-activism-flawed/</t>
+        </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Zimmer</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Maroon</t>
-        </is>
-      </c>
+          <t>Palestine</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>5/31/2013</t>
+          <t>Letter Writing</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>“Ahistorical activism” flawed – Chicago Maroon</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>https://chicagomaroon.com/17451/viewpoints/op-ed/ahistorical-activism-flawed/</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Palestine</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr"/>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
       <c r="M11" t="inlineStr">
-        <is>
-          <t>Letter Writing</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Categories: 
@@ -1676,65 +1481,48 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>10</v>
-      </c>
-      <c r="D12" t="n">
-        <v>10</v>
-      </c>
-      <c r="E12" t="n">
-        <v>10</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Maroon</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>4/9/2013</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Divest in the future – Chicago Maroon</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>https://chicagomaroon.com/16989/viewpoints/letter/divest-in-the-future/</t>
+        </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Zimmer</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Maroon</t>
-        </is>
-      </c>
+          <t>Fossil fuels</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>4/9/2013</t>
+          <t>Letter Writing</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Divest in the future – Chicago Maroon</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>https://chicagomaroon.com/16989/viewpoints/letter/divest-in-the-future/</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>Fossil fuels</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr"/>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
       <c r="M12" t="inlineStr">
-        <is>
-          <t>Letter Writing</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Categories: 
@@ -1783,73 +1571,56 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>11</v>
-      </c>
-      <c r="D13" t="n">
-        <v>11</v>
-      </c>
-      <c r="E13" t="n">
-        <v>11</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Maroon</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1/17/2013</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Students push for climate-concious divestment – Chicago Maroon</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>https://chicagomaroon.com/16484/news/students-push-for-climate-concious-divestment/</t>
+        </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Zimmer</t>
+          <t>Fossil fuels</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>UCAN</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>1/17/2013</t>
+          <t>Letter Writing</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Students push for climate-concious divestment – Chicago Maroon</t>
+          <t>President/Administration</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>https://chicagomaroon.com/16484/news/students-push-for-climate-concious-divestment/</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>Fossil fuels</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>UCAN</t>
-        </is>
+          <t>Ignore/refuse</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
       </c>
       <c r="M13" t="inlineStr">
-        <is>
-          <t>Letter Writing</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>President/Administration</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>Ignore/refuse</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Categories: 
@@ -1897,61 +1668,44 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>12</v>
-      </c>
-      <c r="D14" t="n">
-        <v>12</v>
-      </c>
-      <c r="E14" t="n">
-        <v>12</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Maroon</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>5/27/2011</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Investing in dialogue – Chicago Maroon</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>https://chicagomaroon.com/4158/viewpoints/editorial/investing-in-dialogue/</t>
+        </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Zimmer</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Maroon</t>
-        </is>
-      </c>
+          <t>General Transparency</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>5/27/2011</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>Investing in dialogue – Chicago Maroon</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>https://chicagomaroon.com/4158/viewpoints/editorial/investing-in-dialogue/</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>General Transparency</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr"/>
+          <t>Letter Writing</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
       <c r="M14" t="inlineStr">
-        <is>
-          <t>Letter Writing</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Categories: 
@@ -2010,61 +1764,44 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>13</v>
-      </c>
-      <c r="D15" t="n">
-        <v>13</v>
-      </c>
-      <c r="E15" t="n">
-        <v>13</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Maroon</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>5/24/2011</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Lobbying for consistency – Chicago Maroon</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>https://chicagomaroon.com/7109/viewpoints/op-ed/lobbying-for-consistency/</t>
+        </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Zimmer</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Maroon</t>
-        </is>
-      </c>
+          <t>General Transparency</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>5/24/2011</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>Lobbying for consistency – Chicago Maroon</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>https://chicagomaroon.com/7109/viewpoints/op-ed/lobbying-for-consistency/</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>General Transparency</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr"/>
+          <t>Letter Writing</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
       <c r="M15" t="inlineStr">
-        <is>
-          <t>Letter Writing</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="n">
-        <v>1</v>
-      </c>
-      <c r="R15" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Categories: 
@@ -2113,61 +1850,44 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>14</v>
-      </c>
-      <c r="D16" t="n">
-        <v>14</v>
-      </c>
-      <c r="E16" t="n">
-        <v>14</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Maroon</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>4/22/2011</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Freedom to disagree – Chicago Maroon</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>https://chicagomaroon.com/7268/viewpoints/op-ed/freedom-to-disagree/</t>
+        </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Zimmer</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Maroon</t>
-        </is>
-      </c>
+          <t>General Transparency</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
-          <t>4/22/2011</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>Freedom to disagree – Chicago Maroon</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>https://chicagomaroon.com/7268/viewpoints/op-ed/freedom-to-disagree/</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>General Transparency</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr"/>
+          <t>Letter Writing</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
       <c r="M16" t="inlineStr">
-        <is>
-          <t>Letter Writing</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="n">
-        <v>1</v>
-      </c>
-      <c r="R16" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Categories: 
@@ -2217,61 +1937,44 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="n">
-        <v>15</v>
-      </c>
-      <c r="D17" t="n">
-        <v>15</v>
-      </c>
-      <c r="E17" t="n">
-        <v>15</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Maroon</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>10/15/2010</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>The University shouldn’t invest in morally suspect enterprises</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>https://chicagomaroon.com/13207/viewpoints/op-ed/investing-in-evil/</t>
+        </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Zimmer</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Maroon</t>
-        </is>
-      </c>
+          <t>General Transparency</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>10/15/2010</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>The University shouldn’t invest in morally suspect enterprises</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>https://chicagomaroon.com/13207/viewpoints/op-ed/investing-in-evil/</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>General Transparency</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr"/>
+          <t>Letter Writing</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
       <c r="M17" t="inlineStr">
-        <is>
-          <t>Letter Writing</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="n">
-        <v>1</v>
-      </c>
-      <c r="R17" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Categories: 
@@ -2321,73 +2024,56 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
-        <v>16</v>
-      </c>
-      <c r="C18" t="n">
-        <v>16</v>
-      </c>
-      <c r="D18" t="n">
-        <v>16</v>
-      </c>
-      <c r="E18" t="n">
-        <v>16</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Maroon</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>11/18/2008</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Activists criticize University endowment investments – Chicago Maroon</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>https://chicagomaroon.com/2868/news/activists-criticize-university-endowment-investments/</t>
+        </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Zimmer</t>
+          <t>Labor Rights</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>SOUL</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>11/18/2008</t>
+          <t>Letter Writing</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Activists criticize University endowment investments – Chicago Maroon</t>
+          <t>President/Administration</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>https://chicagomaroon.com/2868/news/activists-criticize-university-endowment-investments/</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>Labor Rights</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>SOUL</t>
-        </is>
+          <t>Ignore/refuse</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
       </c>
       <c r="M18" t="inlineStr">
-        <is>
-          <t>Letter Writing</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>President/Administration</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>Ignore/refuse</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="n">
-        <v>1</v>
-      </c>
-      <c r="R18" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Categories: 
@@ -2442,69 +2128,52 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
-        <v>17</v>
-      </c>
-      <c r="C19" t="n">
-        <v>17</v>
-      </c>
-      <c r="D19" t="n">
-        <v>17</v>
-      </c>
-      <c r="E19" t="n">
-        <v>17</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Maroon</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>4/15/2008</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Letter: On divestment, University not part of solution – Chicago Maroon</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>https://chicagomaroon.com/7709/viewpoints/letter/letter-on-divestment-university-not-part-of-solution/</t>
+        </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Zimmer</t>
+          <t>Sudan</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>STAND</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>4/15/2008</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>Letter: On divestment, University not part of solution – Chicago Maroon</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>https://chicagomaroon.com/7709/viewpoints/letter/letter-on-divestment-university-not-part-of-solution/</t>
-        </is>
-      </c>
+          <t>Letter Writing</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Sudan</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>STAND</t>
-        </is>
+          <t>Harvard, Yale, 23 states, presidential candidates, federal government all divested</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
       </c>
       <c r="M19" t="inlineStr">
-        <is>
-          <t>Letter Writing</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>Harvard, Yale, 23 states, presidential candidates, federal government all divested</t>
-        </is>
-      </c>
-      <c r="Q19" t="n">
-        <v>1</v>
-      </c>
-      <c r="R19" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Categories: 
@@ -2550,69 +2219,52 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="n">
-        <v>18</v>
-      </c>
-      <c r="C20" t="n">
-        <v>18</v>
-      </c>
-      <c r="D20" t="n">
-        <v>18</v>
-      </c>
-      <c r="E20" t="n">
-        <v>18</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Maroon</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>10/2/2007</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Activists must ask questions</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>https://chicagomaroon.com/10634/viewpoints/letter/activists-must-ask-questions/</t>
+        </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Zimmer</t>
+          <t>Sudan</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>STAND</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>10/2/2007</t>
+          <t>Letter Writing</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Activists must ask questions</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>https://chicagomaroon.com/10634/viewpoints/letter/activists-must-ask-questions/</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>Sudan</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>STAND</t>
-        </is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
       </c>
       <c r="M20" t="inlineStr">
-        <is>
-          <t>Letter Writing</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="n">
-        <v>1</v>
-      </c>
-      <c r="R20" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Categories: 
@@ -2660,65 +2312,48 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="n">
-        <v>19</v>
-      </c>
-      <c r="C21" t="n">
-        <v>19</v>
-      </c>
-      <c r="D21" t="n">
-        <v>19</v>
-      </c>
-      <c r="E21" t="n">
-        <v>19</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Maroon</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>5/25/2007</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Different ends need different means – Chicago Maroon</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>https://chicagomaroon.com/4039/viewpoints/op-ed/different-ends-need-different-means/</t>
+        </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Zimmer</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Maroon</t>
-        </is>
-      </c>
+          <t>Sudan</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>5/25/2007</t>
+          <t>Letter Writing</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Different ends need different means – Chicago Maroon</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>https://chicagomaroon.com/4039/viewpoints/op-ed/different-ends-need-different-means/</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>Sudan</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr"/>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
       <c r="M21" t="inlineStr">
-        <is>
-          <t>Letter Writing</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="n">
-        <v>1</v>
-      </c>
-      <c r="R21" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Categories: 
@@ -2764,69 +2399,52 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="n">
-        <v>20</v>
-      </c>
-      <c r="C22" t="n">
-        <v>20</v>
-      </c>
-      <c r="D22" t="n">
-        <v>20</v>
-      </c>
-      <c r="E22" t="n">
-        <v>20</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Maroon</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>5/4/2007</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Genocide, divestment too urgent to ignore – Chicago Maroon</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>https://chicagomaroon.com/1442/viewpoints/op-ed/genocide-divestment-too-urgent-to-ignore/</t>
+        </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Zimmer</t>
+          <t>Sudan</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>Coalition for Immediate Divestment, STAND</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>5/4/2007</t>
+          <t>Letter Writing</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Genocide, divestment too urgent to ignore – Chicago Maroon</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>https://chicagomaroon.com/1442/viewpoints/op-ed/genocide-divestment-too-urgent-to-ignore/</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>Sudan</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>Coalition for Immediate Divestment, STAND</t>
-        </is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
       </c>
       <c r="M22" t="inlineStr">
-        <is>
-          <t>Letter Writing</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="n">
-        <v>1</v>
-      </c>
-      <c r="R22" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Categories: 
@@ -2870,73 +2488,56 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="n">
-        <v>21</v>
-      </c>
-      <c r="C23" t="n">
-        <v>21</v>
-      </c>
-      <c r="D23" t="n">
-        <v>21</v>
-      </c>
-      <c r="E23" t="n">
-        <v>21</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Maroon</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2/20/2007</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Divestment through history’s lens</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>https://chicagomaroon.com/3921/viewpoints/op-ed/divestment-through-historys-lens/</t>
+        </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Zimmer</t>
+          <t>Sudan</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>STAND</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2/20/2007</t>
+          <t>Letter Writing</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Divestment through history’s lens</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>https://chicagomaroon.com/3921/viewpoints/op-ed/divestment-through-historys-lens/</t>
-        </is>
-      </c>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Sudan</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>STAND</t>
-        </is>
+          <t>Kalven report author supports Sudan divestment</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
       </c>
       <c r="M23" t="inlineStr">
-        <is>
-          <t>Letter Writing</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>Kalven report author supports Sudan divestment</t>
-        </is>
-      </c>
-      <c r="Q23" t="n">
-        <v>1</v>
-      </c>
-      <c r="R23" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Categories: 
@@ -2987,65 +2588,48 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="n">
-        <v>22</v>
-      </c>
-      <c r="C24" t="n">
-        <v>22</v>
-      </c>
-      <c r="D24" t="n">
-        <v>22</v>
-      </c>
-      <c r="E24" t="n">
-        <v>22</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Maroon</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>10/3/2006</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Divestment does more than send a message</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>https://chicagomaroon.com/3147/viewpoints/op-ed/divestment-does-more-than-send-a-message/</t>
+        </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Zimmer</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Maroon</t>
-        </is>
-      </c>
+          <t>Sudan</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>10/3/2006</t>
+          <t>Letter Writing</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Divestment does more than send a message</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>https://chicagomaroon.com/3147/viewpoints/op-ed/divestment-does-more-than-send-a-message/</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>Sudan</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr"/>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
       <c r="M24" t="inlineStr">
-        <is>
-          <t>Letter Writing</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="n">
-        <v>1</v>
-      </c>
-      <c r="R24" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Categories: 
@@ -3092,61 +2676,44 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="n">
-        <v>23</v>
-      </c>
-      <c r="C25" t="n">
-        <v>23</v>
-      </c>
-      <c r="D25" t="n">
-        <v>23</v>
-      </c>
-      <c r="E25" t="n">
-        <v>23</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Maroon</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>5/19/2006</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Darfur activists support realistic solutions – Chicago Maroon</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>https://chicagomaroon.com/6123/viewpoints/op-ed/darfur-activists-support-realistic-solutions-2/</t>
+        </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Randel</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>Maroon</t>
-        </is>
-      </c>
+          <t>Sudan</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>5/19/2006</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>Darfur activists support realistic solutions – Chicago Maroon</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>https://chicagomaroon.com/6123/viewpoints/op-ed/darfur-activists-support-realistic-solutions-2/</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>Sudan</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr"/>
+          <t>Letter Writing</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
       <c r="M25" t="inlineStr">
-        <is>
-          <t>Letter Writing</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="n">
-        <v>1</v>
-      </c>
-      <c r="R25" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Categories: 
@@ -3194,61 +2761,44 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="n">
-        <v>24</v>
-      </c>
-      <c r="C26" t="n">
-        <v>24</v>
-      </c>
-      <c r="D26" t="n">
-        <v>24</v>
-      </c>
-      <c r="E26" t="n">
-        <v>24</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Maroon</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>5/10/2006</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>In defense of divestment</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>https://chicagomaroon.com/12950/news/in-defense-of-divestment/</t>
+        </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Randel</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>Maroon</t>
-        </is>
-      </c>
+          <t>Sudan</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>5/10/2006</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>In defense of divestment</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>https://chicagomaroon.com/12950/news/in-defense-of-divestment/</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>Sudan</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr"/>
+          <t>Letter Writing</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
       <c r="M26" t="inlineStr">
-        <is>
-          <t>Letter Writing</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="n">
-        <v>1</v>
-      </c>
-      <c r="R26" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Categories: 
@@ -3289,21 +2839,29 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="n">
-        <v>25</v>
-      </c>
-      <c r="C27" t="n">
-        <v>25</v>
-      </c>
-      <c r="D27" t="n">
-        <v>25</v>
-      </c>
-      <c r="E27" t="n">
-        <v>25</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Maroon</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>4/18/2006</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Divest From Sudan</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>https://chicagomaroon.com/6024/viewpoints/op-ed/divest-from-sudan/</t>
+        </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Randel</t>
+          <t>Sudan</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -3313,45 +2871,20 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>4/18/2006</t>
+          <t>Letter Writing</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Divest From Sudan</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>https://chicagomaroon.com/6024/viewpoints/op-ed/divest-from-sudan/</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>Sudan</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>Maroon</t>
-        </is>
+          <t>Board of Trustees</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
       </c>
       <c r="M27" t="inlineStr">
-        <is>
-          <t>Letter Writing</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>Board of Trustees</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="n">
-        <v>1</v>
-      </c>
-      <c r="R27" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Categories: 
@@ -3396,73 +2929,56 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="n">
-        <v>26</v>
-      </c>
-      <c r="C28" t="n">
-        <v>26</v>
-      </c>
-      <c r="D28" t="n">
-        <v>26</v>
-      </c>
-      <c r="E28" t="n">
-        <v>26</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Maroon</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>4/7/2006</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Bucking trend, U of C will not divest from Sudan</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>https://chicagomaroon.com/8606/news/bucking-trend-u-of-c-will-not-divest-from-sudan/</t>
+        </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Randel</t>
+          <t>Sudan</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>STAND</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>4/7/2006</t>
+          <t>Letter Writing</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Bucking trend, U of C will not divest from Sudan</t>
+          <t>President/Administration</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>https://chicagomaroon.com/8606/news/bucking-trend-u-of-c-will-not-divest-from-sudan/</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>Sudan</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>STAND</t>
-        </is>
+          <t>Interview/forum</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
       </c>
       <c r="M28" t="inlineStr">
-        <is>
-          <t>Letter Writing</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>President/Administration</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>Interview/forum</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="n">
-        <v>1</v>
-      </c>
-      <c r="R28" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Categories: 
@@ -3549,61 +3065,44 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="n">
-        <v>27</v>
-      </c>
-      <c r="C29" t="n">
-        <v>27</v>
-      </c>
-      <c r="D29" t="n">
-        <v>27</v>
-      </c>
-      <c r="E29" t="n">
-        <v>27</v>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Maroon Archives</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>12/5/1986</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Divest now</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>https://campub.lib.uchicago.edu/view/?docId=mvol-0004-1986-1205;query=divest#page/15/mode/1up/search/divest</t>
+        </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Gray</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>Maroon Archives</t>
-        </is>
-      </c>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>12/5/1986</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>Divest now</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>https://campub.lib.uchicago.edu/view/?docId=mvol-0004-1986-1205;query=divest#page/15/mode/1up/search/divest</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>South Africa</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr"/>
+          <t>Letter Writing</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
       <c r="M29" t="inlineStr">
-        <is>
-          <t>Letter Writing</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="n">
-        <v>1</v>
-      </c>
-      <c r="R29" t="inlineStr">
         <is>
           <t xml:space="preserve">nanJason and the Scorchers with the
 Georgia Satellite As far as these
@@ -4034,61 +3533,44 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="n">
-        <v>28</v>
-      </c>
-      <c r="C30" t="n">
-        <v>28</v>
-      </c>
-      <c r="D30" t="n">
-        <v>28</v>
-      </c>
-      <c r="E30" t="n">
-        <v>28</v>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Maroon Archives</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>10/22/1986</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Faculty members speak out on divestment </t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>https://campub.lib.uchicago.edu/view/?docId=mvol-0004-1985-1108;query=divest#page/4/mode/1up</t>
+        </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Gray</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>Maroon Archives</t>
-        </is>
-      </c>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>10/22/1986</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Faculty members speak out on divestment </t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>https://campub.lib.uchicago.edu/view/?docId=mvol-0004-1985-1108;query=divest#page/4/mode/1up</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>South Africa</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr"/>
+          <t>Letter Writing</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
       <c r="M30" t="inlineStr">
-        <is>
-          <t>Letter Writing</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="n">
-        <v>1</v>
-      </c>
-      <c r="R30" t="inlineStr">
         <is>
           <t xml:space="preserve">nanFaculty members speak out on divestment
 Prepared for Faculty for
@@ -4371,61 +3853,44 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="n">
-        <v>29</v>
-      </c>
-      <c r="C31" t="n">
-        <v>29</v>
-      </c>
-      <c r="D31" t="n">
-        <v>29</v>
-      </c>
-      <c r="E31" t="n">
-        <v>29</v>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Maroon Archives</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>9/26/1986</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>The current state of divestment</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>https://campub.lib.uchicago.edu/view/?docId=mvol-0004-1986-0926;query=divest#page/98/mode/1up/search/divest</t>
+        </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Gray</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>Maroon Archives</t>
-        </is>
-      </c>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
-          <t>9/26/1986</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>The current state of divestment</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>https://campub.lib.uchicago.edu/view/?docId=mvol-0004-1986-0926;query=divest#page/98/mode/1up/search/divest</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>South Africa</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr"/>
+          <t>Letter Writing</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
       <c r="M31" t="inlineStr">
-        <is>
-          <t>Letter Writing</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="n">
-        <v>1</v>
-      </c>
-      <c r="R31" t="inlineStr">
         <is>
           <t xml:space="preserve">nanANTI-APARTHEID CHRONOLOGY
 AFRICAN NATIONAL CONGRESS
@@ -4885,61 +4350,44 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="n">
-        <v>30</v>
-      </c>
-      <c r="C32" t="n">
-        <v>30</v>
-      </c>
-      <c r="D32" t="n">
-        <v>30</v>
-      </c>
-      <c r="E32" t="n">
-        <v>30</v>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Maroon Archives</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>4/4/1986</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Student movement</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>https://campub.lib.uchicago.edu/view/?docId=mvol-0004-1986-0404;query=divest#page/35/mode/1up/search/divest</t>
+        </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Gray</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>Maroon Archives</t>
-        </is>
-      </c>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
-          <t>4/4/1986</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>Student movement</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>https://campub.lib.uchicago.edu/view/?docId=mvol-0004-1986-0404;query=divest#page/35/mode/1up/search/divest</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>South Africa</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr"/>
+          <t>Letter Writing</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
       <c r="M32" t="inlineStr">
-        <is>
-          <t>Letter Writing</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="n">
-        <v>1</v>
-      </c>
-      <c r="R32" t="inlineStr">
         <is>
           <t xml:space="preserve">nangree anteater nna an at eee enaiasi deed ae Re ei BE gc bapee. nt
 er Ss gases
@@ -5416,61 +4864,44 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="n">
-        <v>31</v>
-      </c>
-      <c r="C33" t="n">
-        <v>31</v>
-      </c>
-      <c r="D33" t="n">
-        <v>31</v>
-      </c>
-      <c r="E33" t="n">
-        <v>31</v>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Maroon Archives</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>4/4/1986</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Tradition of resistance</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>https://campub.lib.uchicago.edu/view/?docId=mvol-0004-1986-0404;query=divest#page/32/mode/1up/search/divest</t>
+        </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Gray</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>Maroon Archives</t>
-        </is>
-      </c>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>4/4/1986</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>Tradition of resistance</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>https://campub.lib.uchicago.edu/view/?docId=mvol-0004-1986-0404;query=divest#page/32/mode/1up/search/divest</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>South Africa</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr"/>
+          <t>Letter Writing</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
       <c r="M33" t="inlineStr">
-        <is>
-          <t>Letter Writing</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="n">
-        <v>1</v>
-      </c>
-      <c r="R33" t="inlineStr">
         <is>
           <t xml:space="preserve">nan1
 CASE FOR DIVESTMENT MADE PLAIN AND SIMPLE
@@ -5927,61 +5358,44 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="n">
-        <v>32</v>
-      </c>
-      <c r="C34" t="n">
-        <v>32</v>
-      </c>
-      <c r="D34" t="n">
-        <v>32</v>
-      </c>
-      <c r="E34" t="n">
-        <v>32</v>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Maroon Archives</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>4/4/1986</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Case for divestment</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>https://campub.lib.uchicago.edu/view/?docId=mvol-0004-1986-0404;query=divest#page/32/mode/1up/search/divest</t>
+        </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Gray</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>Maroon Archives</t>
-        </is>
-      </c>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
-          <t>4/4/1986</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>Case for divestment</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>https://campub.lib.uchicago.edu/view/?docId=mvol-0004-1986-0404;query=divest#page/32/mode/1up/search/divest</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>South Africa</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr"/>
+          <t>Letter Writing</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
       <c r="M34" t="inlineStr">
-        <is>
-          <t>Letter Writing</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="n">
-        <v>1</v>
-      </c>
-      <c r="R34" t="inlineStr">
         <is>
           <t xml:space="preserve">nan1
 CASE FOR DIVESTMENT MADE PLAIN AND SIMPLE
@@ -6438,61 +5852,44 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="n">
-        <v>33</v>
-      </c>
-      <c r="C35" t="n">
-        <v>33</v>
-      </c>
-      <c r="D35" t="n">
-        <v>33</v>
-      </c>
-      <c r="E35" t="n">
-        <v>33</v>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Maroon Archives</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2/14/1986</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Trustees Profit from Apartheid</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>https://campub.lib.uchicago.edu/view/?docId=mvol-0004-1986-0214;query=divest#page/4/mode/1up/search/divest</t>
+        </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Gray</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>Maroon Archives</t>
-        </is>
-      </c>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2/14/1986</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>Trustees Profit from Apartheid</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>https://campub.lib.uchicago.edu/view/?docId=mvol-0004-1986-0214;query=divest#page/4/mode/1up/search/divest</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>South Africa</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr"/>
+          <t>Letter Writing</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
       <c r="M35" t="inlineStr">
-        <is>
-          <t>Letter Writing</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="n">
-        <v>1</v>
-      </c>
-      <c r="R35" t="inlineStr">
         <is>
           <t>Coalition calls
 To the Editor:
@@ -6846,61 +6243,44 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="n">
-        <v>34</v>
-      </c>
-      <c r="C36" t="n">
-        <v>34</v>
-      </c>
-      <c r="D36" t="n">
-        <v>34</v>
-      </c>
-      <c r="E36" t="n">
-        <v>34</v>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Maroon Archives</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2/14/1986</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Coalition calls for divestment</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>https://campub.lib.uchicago.edu/view/?docId=mvol-0004-1986-0214;query=divest#page/4/mode/1up/search/divest</t>
+        </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Gray</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>Maroon Archives</t>
-        </is>
-      </c>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2/14/1986</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>Coalition calls for divestment</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>https://campub.lib.uchicago.edu/view/?docId=mvol-0004-1986-0214;query=divest#page/4/mode/1up/search/divest</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>South Africa</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr"/>
+          <t>Letter Writing</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
       <c r="M36" t="inlineStr">
-        <is>
-          <t>Letter Writing</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="n">
-        <v>1</v>
-      </c>
-      <c r="R36" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Coalition calls
@@ -7255,61 +6635,44 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="n">
-        <v>35</v>
-      </c>
-      <c r="C37" t="n">
-        <v>35</v>
-      </c>
-      <c r="D37" t="n">
-        <v>35</v>
-      </c>
-      <c r="E37" t="n">
-        <v>35</v>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Maroon Archives</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>11/8/1985</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Faculty members speak out on divestment</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>https://campub.lib.uchicago.edu/view/?docId=mvol-0004-1985-1108;query=divest#page/4/mode/1up</t>
+        </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Gray</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>Maroon Archives</t>
-        </is>
-      </c>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
-          <t>11/8/1985</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>Faculty members speak out on divestment</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>https://campub.lib.uchicago.edu/view/?docId=mvol-0004-1985-1108;query=divest#page/4/mode/1up</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>South Africa</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr"/>
+          <t>Letter Writing</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
       <c r="M37" t="inlineStr">
-        <is>
-          <t>Letter Writing</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="n">
-        <v>1</v>
-      </c>
-      <c r="R37" t="inlineStr">
         <is>
           <t xml:space="preserve">nanFaculty members speak out on divestment
 Prepared for Faculty for
@@ -7592,61 +6955,44 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="n">
-        <v>36</v>
-      </c>
-      <c r="C38" t="n">
-        <v>36</v>
-      </c>
-      <c r="D38" t="n">
-        <v>36</v>
-      </c>
-      <c r="E38" t="n">
-        <v>36</v>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Maroon Archives</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>10/22/1985</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>We, the undersigned members of the University of Chicago faculty</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>https://campub.lib.uchicago.edu/view/?docId=mvol-0004-1985-1022;query=divest#page/16/mode/1up/search/divest</t>
+        </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Gray</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>Maroon Archives</t>
-        </is>
-      </c>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
-          <t>10/22/1985</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>We, the undersigned members of the University of Chicago faculty</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>https://campub.lib.uchicago.edu/view/?docId=mvol-0004-1985-1022;query=divest#page/16/mode/1up/search/divest</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>South Africa</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr"/>
+          <t>Letter Writing</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
       <c r="M38" t="inlineStr">
-        <is>
-          <t>Letter Writing</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="n">
-        <v>1</v>
-      </c>
-      <c r="R38" t="inlineStr">
         <is>
           <t xml:space="preserve">
 We, the
@@ -7954,61 +7300,44 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="n">
-        <v>37</v>
-      </c>
-      <c r="C39" t="n">
-        <v>37</v>
-      </c>
-      <c r="D39" t="n">
-        <v>37</v>
-      </c>
-      <c r="E39" t="n">
-        <v>37</v>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Maroon Archives</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>10/11/1985</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Sarkar exposes Hanna's inconsistencies on South Africa</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>https://campub.lib.uchicago.edu/view/?docId=mvol-0004-1985-1011;query=divest#page/4/mode/1up/search/divest</t>
+        </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Gray</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>Maroon Archives</t>
-        </is>
-      </c>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
-          <t>10/11/1985</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>Sarkar exposes Hanna's inconsistencies on South Africa</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>https://campub.lib.uchicago.edu/view/?docId=mvol-0004-1985-1011;query=divest#page/4/mode/1up/search/divest</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>South Africa</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr"/>
+          <t>Letter Writing</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
       <c r="M39" t="inlineStr">
-        <is>
-          <t>Letter Writing</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="n">
-        <v>1</v>
-      </c>
-      <c r="R39" t="inlineStr">
         <is>
           <t xml:space="preserve">nanStudents concerned about
 Greenstone Committee Plans
@@ -8346,61 +7675,44 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="n">
-        <v>38</v>
-      </c>
-      <c r="C40" t="n">
-        <v>38</v>
-      </c>
-      <c r="D40" t="n">
-        <v>38</v>
-      </c>
-      <c r="E40" t="n">
-        <v>38</v>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Maroon Archives</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>5/31/1985</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Students against Apartheid speak out</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>https://campub.lib.uchicago.edu/view/?docId=mvol-0004-1985-0531;query=divest#page/4/mode/1up/search/divest</t>
+        </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Gray</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>Maroon Archives</t>
-        </is>
-      </c>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
-          <t>5/31/1985</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>Students against Apartheid speak out</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>https://campub.lib.uchicago.edu/view/?docId=mvol-0004-1985-0531;query=divest#page/4/mode/1up/search/divest</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>South Africa</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr"/>
+          <t>Letter Writing</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
       <c r="M40" t="inlineStr">
-        <is>
-          <t>Letter Writing</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="n">
-        <v>1</v>
-      </c>
-      <c r="R40" t="inlineStr">
         <is>
           <t xml:space="preserve">nana py
 A letters
@@ -8787,61 +8099,44 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="n">
-        <v>39</v>
-      </c>
-      <c r="C41" t="n">
-        <v>39</v>
-      </c>
-      <c r="D41" t="n">
-        <v>39</v>
-      </c>
-      <c r="E41" t="n">
-        <v>39</v>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Maroon Archives</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>5/10/1985</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Editorial Protest</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>https://campub.lib.uchicago.edu/view/?docId=mvol-0004-1985-0510;query=divest#page/1/mode/1up/search/divest</t>
+        </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Gray</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>Maroon Archives</t>
-        </is>
-      </c>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
-          <t>5/10/1985</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>Editorial Protest</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>https://campub.lib.uchicago.edu/view/?docId=mvol-0004-1985-0510;query=divest#page/1/mode/1up/search/divest</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>South Africa</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr"/>
+          <t>Letter Writing</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
       <c r="M41" t="inlineStr">
-        <is>
-          <t>Letter Writing</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="n">
-        <v>1</v>
-      </c>
-      <c r="R41" t="inlineStr">
         <is>
           <t xml:space="preserve">nanThe Chicago Maroon
 Volume 94, No. 50
@@ -9152,61 +8447,44 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="n">
-        <v>40</v>
-      </c>
-      <c r="C42" t="n">
-        <v>40</v>
-      </c>
-      <c r="D42" t="n">
-        <v>40</v>
-      </c>
-      <c r="E42" t="n">
-        <v>40</v>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Maroon Archives</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>4/20/1979</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Yes on divest</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>https://campub.lib.uchicago.edu/view/?docId=mvol-0004-1979-0420;query=divest#page/4/mode/1up/search/divest</t>
+        </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Gray</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>Maroon Archives</t>
-        </is>
-      </c>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
-          <t>4/20/1979</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>Yes on divest</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>https://campub.lib.uchicago.edu/view/?docId=mvol-0004-1979-0420;query=divest#page/4/mode/1up/search/divest</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>South Africa</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr"/>
+          <t>Letter Writing</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
       <c r="M42" t="inlineStr">
-        <is>
-          <t>Letter Writing</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="n">
-        <v>1</v>
-      </c>
-      <c r="R42" t="inlineStr">
         <is>
           <t xml:space="preserve">nanEditorial
 The quiet and the
@@ -9568,65 +8846,48 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="n">
-        <v>41</v>
-      </c>
-      <c r="C43" t="n">
-        <v>41</v>
-      </c>
-      <c r="D43" t="n">
-        <v>41</v>
-      </c>
-      <c r="E43" t="n">
-        <v>41</v>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Maroon Archives</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>10/27/1978</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Action Committee addresses Pres Gray</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>https://campub.lib.uchicago.edu/view/?docId=mvol-0004-1978-1027;query=divest#page/5/mode/1up/search/divest</t>
+        </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Gray</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>Maroon Archives</t>
-        </is>
-      </c>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
-          <t>10/27/1978</t>
+          <t>Letter Writing</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Action Committee addresses Pres Gray</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>https://campub.lib.uchicago.edu/view/?docId=mvol-0004-1978-1027;query=divest#page/5/mode/1up/search/divest</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>South Africa</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr"/>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
       <c r="M43" t="inlineStr">
-        <is>
-          <t>Letter Writing</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="n">
-        <v>1</v>
-      </c>
-      <c r="R43" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Viewpoint
@@ -9862,61 +9123,44 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="n">
-        <v>42</v>
-      </c>
-      <c r="C44" t="n">
-        <v>42</v>
-      </c>
-      <c r="D44" t="n">
-        <v>42</v>
-      </c>
-      <c r="E44" t="n">
-        <v>42</v>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Maroon Archives</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>4/21/1978</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>So, leave</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>https://campub.lib.uchicago.edu/view/?docId=mvol-0004-1978-0421;query=divest#page/4/mode/1up/search/divest</t>
+        </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Wilson</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>Maroon Archives</t>
-        </is>
-      </c>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
         <is>
-          <t>4/21/1978</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>So, leave</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>https://campub.lib.uchicago.edu/view/?docId=mvol-0004-1978-0421;query=divest#page/4/mode/1up/search/divest</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>South Africa</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr"/>
+          <t>Letter Writing</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
       <c r="M44" t="inlineStr">
-        <is>
-          <t>Letter Writing</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="n">
-        <v>1</v>
-      </c>
-      <c r="R44" t="inlineStr">
         <is>
           <t xml:space="preserve">nanEditorial
 A new year for SG
@@ -10305,65 +9549,48 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="n">
-        <v>43</v>
-      </c>
-      <c r="C45" t="n">
-        <v>43</v>
-      </c>
-      <c r="D45" t="n">
-        <v>43</v>
-      </c>
-      <c r="E45" t="n">
-        <v>43</v>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Maroon Archives</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2/24/1978</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>UC isolationism</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>https://campub.lib.uchicago.edu/view/?docId=mvol-0004-1978-0224;query=divest#page/4/mode/1up/search/divest</t>
+        </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Wilson</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>Maroon Archives</t>
-        </is>
-      </c>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2/24/1978</t>
+          <t>Letter Writing</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>UC isolationism</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>https://campub.lib.uchicago.edu/view/?docId=mvol-0004-1978-0224;query=divest#page/4/mode/1up/search/divest</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>South Africa</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr"/>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
       <c r="M45" t="inlineStr">
-        <is>
-          <t>Letter Writing</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="n">
-        <v>1</v>
-      </c>
-      <c r="R45" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Editorial |
@@ -10741,65 +9968,48 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="n">
-        <v>44</v>
-      </c>
-      <c r="C46" t="n">
-        <v>44</v>
-      </c>
-      <c r="D46" t="n">
-        <v>44</v>
-      </c>
-      <c r="E46" t="n">
-        <v>44</v>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Maroon Archives</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2/17/1978</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Seventies Students</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>https://campub.lib.uchicago.edu/view/?docId=mvol-0004-1978-0217;query=divest#page/4/mode/1up/search/divest</t>
+        </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Wilson</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>Maroon Archives</t>
-        </is>
-      </c>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2/17/1978</t>
+          <t>Letter Writing</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Seventies Students</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>https://campub.lib.uchicago.edu/view/?docId=mvol-0004-1978-0217;query=divest#page/4/mode/1up/search/divest</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>South Africa</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr"/>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
       <c r="M46" t="inlineStr">
-        <is>
-          <t>Letter Writing</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="n">
-        <v>1</v>
-      </c>
-      <c r="R46" t="inlineStr">
         <is>
           <t xml:space="preserve">nanEditorial
 Seventies students
@@ -11408,69 +10618,52 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="n">
-        <v>45</v>
-      </c>
-      <c r="C47" t="n">
-        <v>45</v>
-      </c>
-      <c r="D47" t="n">
-        <v>45</v>
-      </c>
-      <c r="E47" t="n">
-        <v>45</v>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Maroon Archives</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2/17/1978</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Oppose the trustees</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>https://campub.lib.uchicago.edu/view/?docId=mvol-0004-1978-0217;query=divest#page/4/mode/1up/search/divest</t>
+        </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Wilson</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Maroon Archives</t>
+          <t>Action Committee on SA</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2/17/1978</t>
+          <t>Letter Writing</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Oppose the trustees</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>https://campub.lib.uchicago.edu/view/?docId=mvol-0004-1978-0217;query=divest#page/4/mode/1up/search/divest</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>South Africa</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>Action Committee on SA</t>
-        </is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
       </c>
       <c r="M47" t="inlineStr">
-        <is>
-          <t>Letter Writing</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="n">
-        <v>1</v>
-      </c>
-      <c r="R47" t="inlineStr">
         <is>
           <t xml:space="preserve">nanEditorial
 Seventies students
@@ -12079,65 +11272,48 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="n">
-        <v>46</v>
-      </c>
-      <c r="C48" t="n">
-        <v>46</v>
-      </c>
-      <c r="D48" t="n">
-        <v>46</v>
-      </c>
-      <c r="E48" t="n">
-        <v>46</v>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Maroon Archives</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>1/31/1978</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>UC and South Africa</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>https://campub.lib.uchicago.edu/view/?docId=mvol-0004-1978-0131;query=divest#page/4/mode/1up/search/divest</t>
+        </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Wilson</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>Maroon Archives</t>
-        </is>
-      </c>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
-          <t>1/31/1978</t>
+          <t>Letter Writing</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>UC and South Africa</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>https://campub.lib.uchicago.edu/view/?docId=mvol-0004-1978-0131;query=divest#page/4/mode/1up/search/divest</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>South Africa</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr"/>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
       <c r="M48" t="inlineStr">
-        <is>
-          <t>Letter Writing</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="n">
-        <v>1</v>
-      </c>
-      <c r="R48" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Editorial
@@ -12539,69 +11715,52 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="n">
-        <v>47</v>
-      </c>
-      <c r="C49" t="n">
-        <v>47</v>
-      </c>
-      <c r="D49" t="n">
-        <v>47</v>
-      </c>
-      <c r="E49" t="n">
-        <v>47</v>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Maroon Archives</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>1/13/1978</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Letter to Blair</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>https://campub.lib.uchicago.edu/view/?docId=mvol-0004-1978-0113;query=divest#page/4/mode/1up/search/divest</t>
+        </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Wilson</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Maroon Archives</t>
+          <t>Action Committee on SA</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>1/13/1978</t>
+          <t>Letter Writing</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Letter to Blair</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>https://campub.lib.uchicago.edu/view/?docId=mvol-0004-1978-0113;query=divest#page/4/mode/1up/search/divest</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>South Africa</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>Action Committee on SA</t>
-        </is>
+          <t>Board of Trustees</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
       </c>
       <c r="M49" t="inlineStr">
-        <is>
-          <t>Letter Writing</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>Board of Trustees</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="n">
-        <v>1</v>
-      </c>
-      <c r="R49" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Two presidents and

--- a/2025/divestment-nlp/scrape.xlsx
+++ b/2025/divestment-nlp/scrape.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M49"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,125 +434,112 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date of Event</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Publication</t>
+          <t>Source</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Date of Event</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Source</t>
+          <t>Movement</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>Actor</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Movement</t>
+          <t>Type of Action</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Actor</t>
+          <t>Target of action</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Type of Action</t>
+          <t>Admin Response</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Target of action</t>
+          <t>Notes</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Admin Response</t>
+          <t>Include</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Notes</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Include</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Text</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>5/20/2024</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>We’re Turning Our Backs to You! – Chicago Maroon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>5/20/2024</t>
+          <t>https://chicagomaroon.com/44383/viewpoints/letter/were-turning-our-backs-to-you/</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>We’re Turning Our Backs to You! – Chicago Maroon</t>
+          <t>Palestine</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://chicagomaroon.com/44383/viewpoints/letter/were-turning-our-backs-to-you/</t>
+          <t>SJP</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Palestine</t>
+          <t>Protest, Letter Writing</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>SJP</t>
+          <t>General</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Protest, Letter Writing</t>
+          <t>Arrest/punish</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Arrest/punish</t>
-        </is>
+          <t>Suspended / mandatory leave of absense</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
       </c>
       <c r="K2" t="inlineStr">
-        <is>
-          <t>Suspended / mandatory leave of absense</t>
-        </is>
-      </c>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Categories: 
@@ -613,51 +600,43 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4/30/2024</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>On Expression and Disruption – Chicago Maroon</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>https://chicagomaroon.com/42441/viewpoints/op-ed/on-expression-and-disruption/</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Palestine</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Letter Writing</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Maroon</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>4/30/2024</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>On Expression and Disruption – Chicago Maroon</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://chicagomaroon.com/42441/viewpoints/op-ed/on-expression-and-disruption/</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Palestine</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Letter Writing</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Categories: 
@@ -717,51 +696,43 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4/19/2024</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>How Little Does Palestinian Life Matter to the University of Chicago?</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4/19/2024</t>
+          <t>https://chicagomaroon.com/42119/viewpoints/op-ed/how-little-does-palestinian-life-matter-to-the-university-of-chicago/</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>How Little Does Palestinian Life Matter to the University of Chicago?</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>https://chicagomaroon.com/42119/viewpoints/op-ed/how-little-does-palestinian-life-matter-to-the-university-of-chicago/</t>
-        </is>
-      </c>
+          <t>Palestine</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Palestine</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
-        <is>
           <t>Letter Writing</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>General</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="n">
         <v>1</v>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Categories: 
@@ -830,51 +801,43 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2/9/2024</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>Admin Is Trying to Silence Us for Speaking Up About Palestine. We Won’t Let That Happen. – Chicago Maroon</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2/9/2024</t>
+          <t>https://chicagomaroon.com/41424/viewpoints/letter/admin-is-trying-to-silence-us-for-speaking-up-about-palestine-we-wont-let-that-happen/</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Admin Is Trying to Silence Us for Speaking Up About Palestine. We Won’t Let That Happen. – Chicago Maroon</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>https://chicagomaroon.com/41424/viewpoints/letter/admin-is-trying-to-silence-us-for-speaking-up-about-palestine-we-wont-let-that-happen/</t>
-        </is>
-      </c>
+          <t>Palestine</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Palestine</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr">
-        <is>
           <t>Letter Writing, Protest</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>General</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="n">
         <v>1</v>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Categories: 
@@ -968,51 +931,43 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5/30/2022</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>The Maroon Editorial Board Should Endorse BDS</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>5/30/2022</t>
+          <t>https://chicagomaroon.com/32717/viewpoints/column/maroon-editorial-board-endorse-bds/</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The Maroon Editorial Board Should Endorse BDS</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>https://chicagomaroon.com/32717/viewpoints/column/maroon-editorial-board-endorse-bds/</t>
-        </is>
-      </c>
+          <t>Palestine</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Palestine</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr">
-        <is>
           <t>Letter Writing</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>General</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="n">
         <v>1</v>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>The Maroon Editorial Board Should Endorse BDS
 The Maroon Editorial Board should follow The Harvard Crimson’s recent move and voice its support for the BDS movement and Palestinian liberation.
@@ -1027,51 +982,43 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>10/17/2020</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>To Achieve Genuine Sustainability, Let’s Get Strategic – Chicago Maroon</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>10/17/2020</t>
+          <t>https://chicagomaroon.com/28049/viewpoints/column/achieve-genuine-sustainability-lets-get-strategic/</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>To Achieve Genuine Sustainability, Let’s Get Strategic – Chicago Maroon</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>https://chicagomaroon.com/28049/viewpoints/column/achieve-genuine-sustainability-lets-get-strategic/</t>
-        </is>
-      </c>
+          <t>Fossil fuels</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Fossil fuels</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr">
-        <is>
           <t>Letter Writing</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>General</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="n">
         <v>1</v>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Categories: 
@@ -1117,51 +1064,43 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3/6/2017</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>A Retort to the Kalven Report – Chicago Maroon</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>3/6/2017</t>
+          <t>https://chicagomaroon.com/24077/viewpoints/column/retort-kalven-report/</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>A Retort to the Kalven Report – Chicago Maroon</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>https://chicagomaroon.com/24077/viewpoints/column/retort-kalven-report/</t>
-        </is>
-      </c>
+          <t>Fossil fuels</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Fossil fuels</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr">
-        <is>
           <t>Letter Writing</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>General</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
         <v>1</v>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Categories: 
@@ -1205,59 +1144,51 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2/22/2016</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>Open Letter From Faculty Pushes Fossil Fuel Divestment – Chicago Maroon</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2/22/2016</t>
+          <t>https://chicagomaroon.com/21635/news/students-for-climate-change-releases-petition-to-divest-from-fossil-fuels/</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Open Letter From Faculty Pushes Fossil Fuel Divestment – Chicago Maroon</t>
+          <t>Fossil fuels</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://chicagomaroon.com/21635/news/students-for-climate-change-releases-petition-to-divest-from-fossil-fuels/</t>
+          <t>UCAN</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Fossil fuels</t>
+          <t>Letter Writing</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>UCAN</t>
+          <t>General</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Letter Writing</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
           <t>Ignore/refuse</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
         <v>1</v>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Categories: 
@@ -1300,55 +1231,47 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>10/15/2015</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>Letter: UCAN demands that Trustees consider divestment – Chicago Maroon</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>10/15/2015</t>
+          <t>https://chicagomaroon.com/20804/viewpoints/letter/letter-ucan-demands-that-trustees-consider-divestment/</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Letter: UCAN demands that Trustees consider divestment – Chicago Maroon</t>
+          <t>Fossil fuels</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://chicagomaroon.com/20804/viewpoints/letter/letter-ucan-demands-that-trustees-consider-divestment/</t>
+          <t>UCAN</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Fossil fuels</t>
+          <t>Letter Writing</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>UCAN</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Letter Writing</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
           <t>General</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
         <v>1</v>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Categories: 
@@ -1391,51 +1314,43 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>5/31/2013</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>“Ahistorical activism” flawed – Chicago Maroon</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>5/31/2013</t>
+          <t>https://chicagomaroon.com/17451/viewpoints/op-ed/ahistorical-activism-flawed/</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>“Ahistorical activism” flawed – Chicago Maroon</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>https://chicagomaroon.com/17451/viewpoints/op-ed/ahistorical-activism-flawed/</t>
-        </is>
-      </c>
+          <t>Palestine</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Palestine</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr">
-        <is>
           <t>Letter Writing</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>General</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
         <v>1</v>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Categories: 
@@ -1478,51 +1393,43 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4/9/2013</t>
+        </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>Divest in the future – Chicago Maroon</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>4/9/2013</t>
+          <t>https://chicagomaroon.com/16989/viewpoints/letter/divest-in-the-future/</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Divest in the future – Chicago Maroon</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>https://chicagomaroon.com/16989/viewpoints/letter/divest-in-the-future/</t>
-        </is>
-      </c>
+          <t>Fossil fuels</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Fossil fuels</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr">
-        <is>
           <t>Letter Writing</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>General</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
         <v>1</v>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Categories: 
@@ -1568,59 +1475,51 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>1/17/2013</t>
+        </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>Students push for climate-concious divestment – Chicago Maroon</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1/17/2013</t>
+          <t>https://chicagomaroon.com/16484/news/students-push-for-climate-concious-divestment/</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Students push for climate-concious divestment – Chicago Maroon</t>
+          <t>Fossil fuels</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://chicagomaroon.com/16484/news/students-push-for-climate-concious-divestment/</t>
+          <t>UCAN</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Fossil fuels</t>
+          <t>Letter Writing</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>UCAN</t>
+          <t>President/Administration</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Letter Writing</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>President/Administration</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
           <t>Ignore/refuse</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
         <v>1</v>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Categories: 
@@ -1665,47 +1564,39 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>5/27/2011</t>
+        </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>Investing in dialogue – Chicago Maroon</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>5/27/2011</t>
+          <t>https://chicagomaroon.com/4158/viewpoints/editorial/investing-in-dialogue/</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Investing in dialogue – Chicago Maroon</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>https://chicagomaroon.com/4158/viewpoints/editorial/investing-in-dialogue/</t>
-        </is>
-      </c>
+          <t>General Transparency</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>General Transparency</t>
+          <t>Letter Writing</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Letter Writing</t>
-        </is>
-      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
+      <c r="J14" t="n">
         <v>1</v>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Categories: 
@@ -1761,47 +1652,39 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>5/24/2011</t>
+        </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>Lobbying for consistency – Chicago Maroon</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>5/24/2011</t>
+          <t>https://chicagomaroon.com/7109/viewpoints/op-ed/lobbying-for-consistency/</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Lobbying for consistency – Chicago Maroon</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>https://chicagomaroon.com/7109/viewpoints/op-ed/lobbying-for-consistency/</t>
-        </is>
-      </c>
+          <t>General Transparency</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>General Transparency</t>
+          <t>Letter Writing</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Letter Writing</t>
-        </is>
-      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
+      <c r="J15" t="n">
         <v>1</v>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Categories: 
@@ -1847,47 +1730,39 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4/22/2011</t>
+        </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>Freedom to disagree – Chicago Maroon</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>4/22/2011</t>
+          <t>https://chicagomaroon.com/7268/viewpoints/op-ed/freedom-to-disagree/</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Freedom to disagree – Chicago Maroon</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>https://chicagomaroon.com/7268/viewpoints/op-ed/freedom-to-disagree/</t>
-        </is>
-      </c>
+          <t>General Transparency</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>General Transparency</t>
+          <t>Letter Writing</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Letter Writing</t>
-        </is>
-      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
+      <c r="J16" t="n">
         <v>1</v>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Categories: 
@@ -1934,47 +1809,39 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>10/15/2010</t>
+        </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>The University shouldn’t invest in morally suspect enterprises</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>10/15/2010</t>
+          <t>https://chicagomaroon.com/13207/viewpoints/op-ed/investing-in-evil/</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>The University shouldn’t invest in morally suspect enterprises</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>https://chicagomaroon.com/13207/viewpoints/op-ed/investing-in-evil/</t>
-        </is>
-      </c>
+          <t>General Transparency</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>General Transparency</t>
+          <t>Letter Writing</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Letter Writing</t>
-        </is>
-      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
+      <c r="J17" t="n">
         <v>1</v>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Categories: 
@@ -2021,59 +1888,51 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>11/18/2008</t>
+        </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>Activists criticize University endowment investments – Chicago Maroon</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>11/18/2008</t>
+          <t>https://chicagomaroon.com/2868/news/activists-criticize-university-endowment-investments/</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Activists criticize University endowment investments – Chicago Maroon</t>
+          <t>Labor Rights</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://chicagomaroon.com/2868/news/activists-criticize-university-endowment-investments/</t>
+          <t>SOUL</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Labor Rights</t>
+          <t>Letter Writing</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>SOUL</t>
+          <t>President/Administration</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Letter Writing</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>President/Administration</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
           <t>Ignore/refuse</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
         <v>1</v>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Categories: 
@@ -2125,55 +1984,47 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4/15/2008</t>
+        </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>Letter: On divestment, University not part of solution – Chicago Maroon</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>4/15/2008</t>
+          <t>https://chicagomaroon.com/7709/viewpoints/letter/letter-on-divestment-university-not-part-of-solution/</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Letter: On divestment, University not part of solution – Chicago Maroon</t>
+          <t>Sudan</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://chicagomaroon.com/7709/viewpoints/letter/letter-on-divestment-university-not-part-of-solution/</t>
+          <t>STAND</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Sudan</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>STAND</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
           <t>Letter Writing</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Harvard, Yale, 23 states, presidential candidates, federal government all divested</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
       <c r="K19" t="inlineStr">
-        <is>
-          <t>Harvard, Yale, 23 states, presidential candidates, federal government all divested</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Categories: 
@@ -2216,55 +2067,47 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>10/2/2007</t>
+        </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>Activists must ask questions</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>10/2/2007</t>
+          <t>https://chicagomaroon.com/10634/viewpoints/letter/activists-must-ask-questions/</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Activists must ask questions</t>
+          <t>Sudan</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://chicagomaroon.com/10634/viewpoints/letter/activists-must-ask-questions/</t>
+          <t>STAND</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Sudan</t>
+          <t>Letter Writing</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>STAND</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Letter Writing</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
           <t>General</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
         <v>1</v>
       </c>
-      <c r="M20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Categories: 
@@ -2309,51 +2152,43 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>5/25/2007</t>
+        </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>Different ends need different means – Chicago Maroon</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>5/25/2007</t>
+          <t>https://chicagomaroon.com/4039/viewpoints/op-ed/different-ends-need-different-means/</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Different ends need different means – Chicago Maroon</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>https://chicagomaroon.com/4039/viewpoints/op-ed/different-ends-need-different-means/</t>
-        </is>
-      </c>
+          <t>Sudan</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Sudan</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr">
-        <is>
           <t>Letter Writing</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>General</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
         <v>1</v>
       </c>
-      <c r="M21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Categories: 
@@ -2396,55 +2231,47 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>5/4/2007</t>
+        </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>Genocide, divestment too urgent to ignore – Chicago Maroon</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>5/4/2007</t>
+          <t>https://chicagomaroon.com/1442/viewpoints/op-ed/genocide-divestment-too-urgent-to-ignore/</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Genocide, divestment too urgent to ignore – Chicago Maroon</t>
+          <t>Sudan</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://chicagomaroon.com/1442/viewpoints/op-ed/genocide-divestment-too-urgent-to-ignore/</t>
+          <t>Coalition for Immediate Divestment, STAND</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Sudan</t>
+          <t>Letter Writing</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Coalition for Immediate Divestment, STAND</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Letter Writing</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
           <t>General</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
         <v>1</v>
       </c>
-      <c r="M22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Categories: 
@@ -2485,59 +2312,51 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2/20/2007</t>
+        </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>Divestment through history’s lens</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2/20/2007</t>
+          <t>https://chicagomaroon.com/3921/viewpoints/op-ed/divestment-through-historys-lens/</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Divestment through history’s lens</t>
+          <t>Sudan</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://chicagomaroon.com/3921/viewpoints/op-ed/divestment-through-historys-lens/</t>
+          <t>STAND</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Sudan</t>
+          <t>Letter Writing</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>STAND</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Letter Writing</t>
-        </is>
-      </c>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr"/>
+          <t>Kalven report author supports Sudan divestment</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
       <c r="K23" t="inlineStr">
-        <is>
-          <t>Kalven report author supports Sudan divestment</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Categories: 
@@ -2585,51 +2404,43 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>10/3/2006</t>
+        </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>Divestment does more than send a message</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>10/3/2006</t>
+          <t>https://chicagomaroon.com/3147/viewpoints/op-ed/divestment-does-more-than-send-a-message/</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Divestment does more than send a message</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>https://chicagomaroon.com/3147/viewpoints/op-ed/divestment-does-more-than-send-a-message/</t>
-        </is>
-      </c>
+          <t>Sudan</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Sudan</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr">
-        <is>
           <t>Letter Writing</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>General</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
         <v>1</v>
       </c>
-      <c r="M24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Categories: 
@@ -2673,47 +2484,39 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>5/19/2006</t>
+        </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>Darfur activists support realistic solutions – Chicago Maroon</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>5/19/2006</t>
+          <t>https://chicagomaroon.com/6123/viewpoints/op-ed/darfur-activists-support-realistic-solutions-2/</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Darfur activists support realistic solutions – Chicago Maroon</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>https://chicagomaroon.com/6123/viewpoints/op-ed/darfur-activists-support-realistic-solutions-2/</t>
-        </is>
-      </c>
+          <t>Sudan</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Sudan</t>
+          <t>Letter Writing</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Letter Writing</t>
-        </is>
-      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
+      <c r="J25" t="n">
         <v>1</v>
       </c>
-      <c r="M25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Categories: 
@@ -2758,47 +2561,39 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>5/10/2006</t>
+        </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>In defense of divestment</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>5/10/2006</t>
+          <t>https://chicagomaroon.com/12950/news/in-defense-of-divestment/</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>In defense of divestment</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>https://chicagomaroon.com/12950/news/in-defense-of-divestment/</t>
-        </is>
-      </c>
+          <t>Sudan</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Sudan</t>
+          <t>Letter Writing</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Letter Writing</t>
-        </is>
-      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
+      <c r="J26" t="n">
         <v>1</v>
       </c>
-      <c r="M26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Categories: 
@@ -2836,55 +2631,47 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>4/18/2006</t>
+        </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>Divest From Sudan</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://chicagomaroon.com/6024/viewpoints/op-ed/divest-from-sudan/</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Sudan</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
           <t>Maroon</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>4/18/2006</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Divest From Sudan</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>https://chicagomaroon.com/6024/viewpoints/op-ed/divest-from-sudan/</t>
-        </is>
-      </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Sudan</t>
+          <t>Letter Writing</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Maroon</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Letter Writing</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
           <t>Board of Trustees</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
         <v>1</v>
       </c>
-      <c r="M27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Categories: 
@@ -2926,59 +2713,51 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>4/7/2006</t>
+        </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>Bucking trend, U of C will not divest from Sudan</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>4/7/2006</t>
+          <t>https://chicagomaroon.com/8606/news/bucking-trend-u-of-c-will-not-divest-from-sudan/</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Bucking trend, U of C will not divest from Sudan</t>
+          <t>Sudan</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://chicagomaroon.com/8606/news/bucking-trend-u-of-c-will-not-divest-from-sudan/</t>
+          <t>STAND</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Sudan</t>
+          <t>Letter Writing</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>STAND</t>
+          <t>President/Administration</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Letter Writing</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>President/Administration</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
           <t>Interview/forum</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
         <v>1</v>
       </c>
-      <c r="M28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Categories: 
@@ -3062,47 +2841,39 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>12/5/1986</t>
+        </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Maroon Archives</t>
+          <t>Divest now</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>12/5/1986</t>
+          <t>https://campub.lib.uchicago.edu/view/?docId=mvol-0004-1986-1205;query=divest#page/15/mode/1up/search/divest</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Divest now</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>https://campub.lib.uchicago.edu/view/?docId=mvol-0004-1986-1205;query=divest#page/15/mode/1up/search/divest</t>
-        </is>
-      </c>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Letter Writing</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Letter Writing</t>
-        </is>
-      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
+      <c r="J29" t="n">
         <v>1</v>
       </c>
-      <c r="M29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t xml:space="preserve">nanJason and the Scorchers with the
 Georgia Satellite As far as these
@@ -3530,47 +3301,39 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>10/22/1986</t>
+        </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Maroon Archives</t>
+          <t xml:space="preserve">Faculty members speak out on divestment </t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>10/22/1986</t>
+          <t>https://campub.lib.uchicago.edu/view/?docId=mvol-0004-1985-1108;query=divest#page/4/mode/1up</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Faculty members speak out on divestment </t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>https://campub.lib.uchicago.edu/view/?docId=mvol-0004-1985-1108;query=divest#page/4/mode/1up</t>
-        </is>
-      </c>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Letter Writing</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Letter Writing</t>
-        </is>
-      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
+      <c r="J30" t="n">
         <v>1</v>
       </c>
-      <c r="M30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t xml:space="preserve">nanFaculty members speak out on divestment
 Prepared for Faculty for
@@ -3850,47 +3613,39 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>9/26/1986</t>
+        </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Maroon Archives</t>
+          <t>The current state of divestment</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>9/26/1986</t>
+          <t>https://campub.lib.uchicago.edu/view/?docId=mvol-0004-1986-0926;query=divest#page/98/mode/1up/search/divest</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>The current state of divestment</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>https://campub.lib.uchicago.edu/view/?docId=mvol-0004-1986-0926;query=divest#page/98/mode/1up/search/divest</t>
-        </is>
-      </c>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Letter Writing</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Letter Writing</t>
-        </is>
-      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
+      <c r="J31" t="n">
         <v>1</v>
       </c>
-      <c r="M31" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t xml:space="preserve">nanANTI-APARTHEID CHRONOLOGY
 AFRICAN NATIONAL CONGRESS
@@ -4347,47 +4102,39 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>4/4/1986</t>
+        </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Maroon Archives</t>
+          <t>Student movement</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>4/4/1986</t>
+          <t>https://campub.lib.uchicago.edu/view/?docId=mvol-0004-1986-0404;query=divest#page/35/mode/1up/search/divest</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Student movement</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>https://campub.lib.uchicago.edu/view/?docId=mvol-0004-1986-0404;query=divest#page/35/mode/1up/search/divest</t>
-        </is>
-      </c>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Letter Writing</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Letter Writing</t>
-        </is>
-      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
+      <c r="J32" t="n">
         <v>1</v>
       </c>
-      <c r="M32" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t xml:space="preserve">nangree anteater nna an at eee enaiasi deed ae Re ei BE gc bapee. nt
 er Ss gases
@@ -4861,47 +4608,39 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>4/4/1986</t>
+        </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Maroon Archives</t>
+          <t>Tradition of resistance</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>4/4/1986</t>
+          <t>https://campub.lib.uchicago.edu/view/?docId=mvol-0004-1986-0404;query=divest#page/32/mode/1up/search/divest</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Tradition of resistance</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>https://campub.lib.uchicago.edu/view/?docId=mvol-0004-1986-0404;query=divest#page/32/mode/1up/search/divest</t>
-        </is>
-      </c>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Letter Writing</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Letter Writing</t>
-        </is>
-      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
+      <c r="J33" t="n">
         <v>1</v>
       </c>
-      <c r="M33" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t xml:space="preserve">nan1
 CASE FOR DIVESTMENT MADE PLAIN AND SIMPLE
@@ -5355,47 +5094,39 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>4/4/1986</t>
+        </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Maroon Archives</t>
+          <t>Case for divestment</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>4/4/1986</t>
+          <t>https://campub.lib.uchicago.edu/view/?docId=mvol-0004-1986-0404;query=divest#page/32/mode/1up/search/divest</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Case for divestment</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>https://campub.lib.uchicago.edu/view/?docId=mvol-0004-1986-0404;query=divest#page/32/mode/1up/search/divest</t>
-        </is>
-      </c>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Letter Writing</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Letter Writing</t>
-        </is>
-      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
+      <c r="J34" t="n">
         <v>1</v>
       </c>
-      <c r="M34" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t xml:space="preserve">nan1
 CASE FOR DIVESTMENT MADE PLAIN AND SIMPLE
@@ -5849,47 +5580,39 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2/14/1986</t>
+        </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Maroon Archives</t>
+          <t>Trustees Profit from Apartheid</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2/14/1986</t>
+          <t>https://campub.lib.uchicago.edu/view/?docId=mvol-0004-1986-0214;query=divest#page/4/mode/1up/search/divest</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Trustees Profit from Apartheid</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>https://campub.lib.uchicago.edu/view/?docId=mvol-0004-1986-0214;query=divest#page/4/mode/1up/search/divest</t>
-        </is>
-      </c>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Letter Writing</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>Letter Writing</t>
-        </is>
-      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
+      <c r="J35" t="n">
         <v>1</v>
       </c>
-      <c r="M35" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>Coalition calls
 To the Editor:
@@ -6240,47 +5963,39 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2/14/1986</t>
+        </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Maroon Archives</t>
+          <t>Coalition calls for divestment</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2/14/1986</t>
+          <t>https://campub.lib.uchicago.edu/view/?docId=mvol-0004-1986-0214;query=divest#page/4/mode/1up/search/divest</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Coalition calls for divestment</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>https://campub.lib.uchicago.edu/view/?docId=mvol-0004-1986-0214;query=divest#page/4/mode/1up/search/divest</t>
-        </is>
-      </c>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Letter Writing</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>Letter Writing</t>
-        </is>
-      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
+      <c r="J36" t="n">
         <v>1</v>
       </c>
-      <c r="M36" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Coalition calls
@@ -6632,47 +6347,39 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>11/8/1985</t>
+        </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Maroon Archives</t>
+          <t>Faculty members speak out on divestment</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>11/8/1985</t>
+          <t>https://campub.lib.uchicago.edu/view/?docId=mvol-0004-1985-1108;query=divest#page/4/mode/1up</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Faculty members speak out on divestment</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>https://campub.lib.uchicago.edu/view/?docId=mvol-0004-1985-1108;query=divest#page/4/mode/1up</t>
-        </is>
-      </c>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Letter Writing</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>Letter Writing</t>
-        </is>
-      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
+      <c r="J37" t="n">
         <v>1</v>
       </c>
-      <c r="M37" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t xml:space="preserve">nanFaculty members speak out on divestment
 Prepared for Faculty for
@@ -6952,47 +6659,39 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>10/22/1985</t>
+        </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Maroon Archives</t>
+          <t>We, the undersigned members of the University of Chicago faculty</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>10/22/1985</t>
+          <t>https://campub.lib.uchicago.edu/view/?docId=mvol-0004-1985-1022;query=divest#page/16/mode/1up/search/divest</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>We, the undersigned members of the University of Chicago faculty</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>https://campub.lib.uchicago.edu/view/?docId=mvol-0004-1985-1022;query=divest#page/16/mode/1up/search/divest</t>
-        </is>
-      </c>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Letter Writing</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>Letter Writing</t>
-        </is>
-      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
+      <c r="J38" t="n">
         <v>1</v>
       </c>
-      <c r="M38" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t xml:space="preserve">
 We, the
@@ -7297,47 +6996,39 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>10/11/1985</t>
+        </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Maroon Archives</t>
+          <t>Sarkar exposes Hanna's inconsistencies on South Africa</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>10/11/1985</t>
+          <t>https://campub.lib.uchicago.edu/view/?docId=mvol-0004-1985-1011;query=divest#page/4/mode/1up/search/divest</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Sarkar exposes Hanna's inconsistencies on South Africa</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>https://campub.lib.uchicago.edu/view/?docId=mvol-0004-1985-1011;query=divest#page/4/mode/1up/search/divest</t>
-        </is>
-      </c>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Letter Writing</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Letter Writing</t>
-        </is>
-      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
+      <c r="J39" t="n">
         <v>1</v>
       </c>
-      <c r="M39" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t xml:space="preserve">nanStudents concerned about
 Greenstone Committee Plans
@@ -7672,47 +7363,39 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>5/31/1985</t>
+        </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Maroon Archives</t>
+          <t>Students against Apartheid speak out</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>5/31/1985</t>
+          <t>https://campub.lib.uchicago.edu/view/?docId=mvol-0004-1985-0531;query=divest#page/4/mode/1up/search/divest</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Students against Apartheid speak out</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>https://campub.lib.uchicago.edu/view/?docId=mvol-0004-1985-0531;query=divest#page/4/mode/1up/search/divest</t>
-        </is>
-      </c>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Letter Writing</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Letter Writing</t>
-        </is>
-      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
+      <c r="J40" t="n">
         <v>1</v>
       </c>
-      <c r="M40" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t xml:space="preserve">nana py
 A letters
@@ -8096,47 +7779,39 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>5/10/1985</t>
+        </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Maroon Archives</t>
+          <t>Editorial Protest</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>5/10/1985</t>
+          <t>https://campub.lib.uchicago.edu/view/?docId=mvol-0004-1985-0510;query=divest#page/1/mode/1up/search/divest</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Editorial Protest</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>https://campub.lib.uchicago.edu/view/?docId=mvol-0004-1985-0510;query=divest#page/1/mode/1up/search/divest</t>
-        </is>
-      </c>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Letter Writing</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Letter Writing</t>
-        </is>
-      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
+      <c r="J41" t="n">
         <v>1</v>
       </c>
-      <c r="M41" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t xml:space="preserve">nanThe Chicago Maroon
 Volume 94, No. 50
@@ -8444,47 +8119,39 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>4/20/1979</t>
+        </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Maroon Archives</t>
+          <t>Yes on divest</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>4/20/1979</t>
+          <t>https://campub.lib.uchicago.edu/view/?docId=mvol-0004-1979-0420;query=divest#page/4/mode/1up/search/divest</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Yes on divest</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>https://campub.lib.uchicago.edu/view/?docId=mvol-0004-1979-0420;query=divest#page/4/mode/1up/search/divest</t>
-        </is>
-      </c>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Letter Writing</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Letter Writing</t>
-        </is>
-      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
+      <c r="J42" t="n">
         <v>1</v>
       </c>
-      <c r="M42" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t xml:space="preserve">nanEditorial
 The quiet and the
@@ -8843,51 +8510,43 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>10/27/1978</t>
+        </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Maroon Archives</t>
+          <t>Action Committee addresses Pres Gray</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>10/27/1978</t>
+          <t>https://campub.lib.uchicago.edu/view/?docId=mvol-0004-1978-1027;query=divest#page/5/mode/1up/search/divest</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Action Committee addresses Pres Gray</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>https://campub.lib.uchicago.edu/view/?docId=mvol-0004-1978-1027;query=divest#page/5/mode/1up/search/divest</t>
-        </is>
-      </c>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>South Africa</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr">
-        <is>
           <t>Letter Writing</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>General</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
         <v>1</v>
       </c>
-      <c r="M43" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Viewpoint
@@ -9120,47 +8779,39 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>4/21/1978</t>
+        </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Maroon Archives</t>
+          <t>So, leave</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>4/21/1978</t>
+          <t>https://campub.lib.uchicago.edu/view/?docId=mvol-0004-1978-0421;query=divest#page/4/mode/1up/search/divest</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>So, leave</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>https://campub.lib.uchicago.edu/view/?docId=mvol-0004-1978-0421;query=divest#page/4/mode/1up/search/divest</t>
-        </is>
-      </c>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Letter Writing</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Letter Writing</t>
-        </is>
-      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
+      <c r="J44" t="n">
         <v>1</v>
       </c>
-      <c r="M44" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t xml:space="preserve">nanEditorial
 A new year for SG
@@ -9546,51 +9197,43 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2/24/1978</t>
+        </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Maroon Archives</t>
+          <t>UC isolationism</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2/24/1978</t>
+          <t>https://campub.lib.uchicago.edu/view/?docId=mvol-0004-1978-0224;query=divest#page/4/mode/1up/search/divest</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>UC isolationism</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>https://campub.lib.uchicago.edu/view/?docId=mvol-0004-1978-0224;query=divest#page/4/mode/1up/search/divest</t>
-        </is>
-      </c>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>South Africa</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr">
-        <is>
           <t>Letter Writing</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>General</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
         <v>1</v>
       </c>
-      <c r="M45" t="inlineStr">
+      <c r="K45" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Editorial |
@@ -9965,51 +9608,43 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2/17/1978</t>
+        </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Maroon Archives</t>
+          <t>Seventies Students</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2/17/1978</t>
+          <t>https://campub.lib.uchicago.edu/view/?docId=mvol-0004-1978-0217;query=divest#page/4/mode/1up/search/divest</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Seventies Students</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>https://campub.lib.uchicago.edu/view/?docId=mvol-0004-1978-0217;query=divest#page/4/mode/1up/search/divest</t>
-        </is>
-      </c>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>South Africa</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr">
-        <is>
           <t>Letter Writing</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>General</t>
         </is>
       </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
         <v>1</v>
       </c>
-      <c r="M46" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t xml:space="preserve">nanEditorial
 Seventies students
@@ -10615,55 +10250,47 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2/17/1978</t>
+        </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Maroon Archives</t>
+          <t>Oppose the trustees</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2/17/1978</t>
+          <t>https://campub.lib.uchicago.edu/view/?docId=mvol-0004-1978-0217;query=divest#page/4/mode/1up/search/divest</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Oppose the trustees</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://campub.lib.uchicago.edu/view/?docId=mvol-0004-1978-0217;query=divest#page/4/mode/1up/search/divest</t>
+          <t>Action Committee on SA</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Letter Writing</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Action Committee on SA</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Letter Writing</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
           <t>General</t>
         </is>
       </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
         <v>1</v>
       </c>
-      <c r="M47" t="inlineStr">
+      <c r="K47" t="inlineStr">
         <is>
           <t xml:space="preserve">nanEditorial
 Seventies students
@@ -11269,51 +10896,43 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>1/31/1978</t>
+        </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Maroon Archives</t>
+          <t>UC and South Africa</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1/31/1978</t>
+          <t>https://campub.lib.uchicago.edu/view/?docId=mvol-0004-1978-0131;query=divest#page/4/mode/1up/search/divest</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>UC and South Africa</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>https://campub.lib.uchicago.edu/view/?docId=mvol-0004-1978-0131;query=divest#page/4/mode/1up/search/divest</t>
-        </is>
-      </c>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>South Africa</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr">
-        <is>
           <t>Letter Writing</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>General</t>
         </is>
       </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
         <v>1</v>
       </c>
-      <c r="M48" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Editorial
@@ -11712,55 +11331,47 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>1/13/1978</t>
+        </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Maroon Archives</t>
+          <t>Letter to Blair</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1/13/1978</t>
+          <t>https://campub.lib.uchicago.edu/view/?docId=mvol-0004-1978-0113;query=divest#page/4/mode/1up/search/divest</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Letter to Blair</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://campub.lib.uchicago.edu/view/?docId=mvol-0004-1978-0113;query=divest#page/4/mode/1up/search/divest</t>
+          <t>Action Committee on SA</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Letter Writing</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Action Committee on SA</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Letter Writing</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
           <t>Board of Trustees</t>
         </is>
       </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
         <v>1</v>
       </c>
-      <c r="M49" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Two presidents and
